--- a/plots/countries/plot data/Czechia.xlsx
+++ b/plots/countries/plot data/Czechia.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>15.7479451795339</v>
+        <v>13.7173256151212</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>34.1842251990342</v>
+        <v>34.1852108846562</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>13.8352978551451</v>
+        <v>11.0600536743451</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>11.2494662147374</v>
+        <v>11.2748646670497</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>17.1152184623112</v>
+        <v>17.114960025589</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.83710899010114</v>
+        <v>-9.55514843145025</v>
       </c>
     </row>
     <row r="10">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>13.1467152052066</v>
+        <v>12.1712775899929</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>32.2317828237791</v>
+        <v>32.2339616942276</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>12.7376521018271</v>
+        <v>10.0578182906271</v>
       </c>
     </row>
     <row r="14">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>10.1904620099002</v>
+        <v>10.2109304104292</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>13.7679743928384</v>
+        <v>13.7677171252276</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-10.3377744508244</v>
+        <v>-10.9607458343257</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>11.2720934679861</v>
+        <v>10.2001288887302</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>24.8432374422697</v>
+        <v>24.8448600481792</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>11.7534726198985</v>
+        <v>9.35598589189853</v>
       </c>
     </row>
     <row r="23">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>10.6125515867392</v>
+        <v>10.6312782465739</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>14.5227961268189</v>
+        <v>14.5225358924969</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-10.5342894144596</v>
+        <v>-11.0464505423744</v>
       </c>
     </row>
     <row r="28">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>9.87472859332573</v>
+        <v>9.35614515790073</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>28.0793689472558</v>
+        <v>28.0804050662109</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>12.0908545676706</v>
+        <v>9.7935972780706</v>
       </c>
     </row>
     <row r="32">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>10.1739522225961</v>
+        <v>10.1927296175316</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>13.351208642395</v>
+        <v>13.3509456029292</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-11.3641542019842</v>
+        <v>-11.931105249521</v>
       </c>
     </row>
     <row r="37">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>9.06036008537474</v>
+        <v>8.34159157078773</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>25.5452691342094</v>
+        <v>25.5455292974411</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>11.4065670043515</v>
+        <v>9.35921799155152</v>
       </c>
     </row>
     <row r="41">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>11.0926997183079</v>
+        <v>11.1195151877074</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>14.6069971433807</v>
+        <v>14.6067314583995</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-10.1178308303479</v>
+        <v>-10.7099585811024</v>
       </c>
     </row>
     <row r="46">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>9.21488075348118</v>
+        <v>8.99976467271429</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>23.4956120476298</v>
+        <v>23.4950818324945</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>11.2645367720866</v>
+        <v>9.29040883448664</v>
       </c>
     </row>
     <row r="50">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>10.4098241055689</v>
+        <v>10.4421401557172</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>14.1605405075786</v>
+        <v>14.1602720771062</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-10.3827920881614</v>
+        <v>-10.9789371322985</v>
       </c>
     </row>
     <row r="55">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>8.79792292058274</v>
+        <v>8.66574764688785</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>21.5132012739027</v>
+        <v>21.5115965818241</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>11.2902829696562</v>
+        <v>9.22725400165622</v>
       </c>
     </row>
     <row r="59">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>10.6359862547189</v>
+        <v>10.6693006803981</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>14.9560294674946</v>
+        <v>14.9557630437232</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-10.1052280657421</v>
+        <v>-10.7338428392833</v>
       </c>
     </row>
     <row r="64">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>8.49989386057477</v>
+        <v>8.08365805357535</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>20.4608216162701</v>
+        <v>20.4583085228425</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>10.9859869336834</v>
+        <v>9.00060251448336</v>
       </c>
     </row>
     <row r="68">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>10.6164160430508</v>
+        <v>10.6510250941039</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>15.9817407397267</v>
+        <v>15.9814920852983</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-9.06364131435075</v>
+        <v>-9.68276911709127</v>
       </c>
     </row>
     <row r="73">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>8.17948972502777</v>
+        <v>7.67239325259028</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>18.0713559797037</v>
+        <v>18.069230747446</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>10.5007830998413</v>
+        <v>8.73315585664133</v>
       </c>
     </row>
     <row r="77">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>12.0039160301811</v>
+        <v>12.037887440833</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>16.1379851334915</v>
+        <v>16.137762371528</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-8.71942171656544</v>
+        <v>-9.45742758271404</v>
       </c>
     </row>
     <row r="82">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>8.23155568933672</v>
+        <v>7.54043192771682</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>17.0658688838434</v>
+        <v>17.059430860266</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>9.50098607995734</v>
+        <v>7.95287820955734</v>
       </c>
     </row>
     <row r="86">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>12.123689869179</v>
+        <v>12.1592361733458</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>13.5371356526283</v>
+        <v>13.547392463954</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-8.93964597724885</v>
+        <v>-9.59753651164917</v>
       </c>
     </row>
     <row r="91">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>8.52871080617374</v>
+        <v>7.77006054516619</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>17.4971159185444</v>
+        <v>17.4905432857442</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>8.54845588221577</v>
+        <v>6.78895632221577</v>
       </c>
     </row>
     <row r="95">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>12.2377565540089</v>
+        <v>12.2528043594467</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>15.1371557770614</v>
+        <v>15.1369904507433</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-9.6849808979675</v>
+        <v>-10.2966806534623</v>
       </c>
     </row>
     <row r="100">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>8.92615061370046</v>
+        <v>8.75972033099444</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>17.7485917639173</v>
+        <v>17.7652852023807</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>7.80991272406518</v>
+        <v>5.99517368886518</v>
       </c>
     </row>
     <row r="104">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>13.0214562132283</v>
+        <v>13.0267772737181</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>14.4242720816125</v>
+        <v>14.4240936144031</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-9.65646155526135</v>
+        <v>-10.3063752264983</v>
       </c>
     </row>
     <row r="109">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>8.49531251463243</v>
+        <v>8.23820571366107</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>16.616162707484</v>
+        <v>16.6324045343596</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>7.53183884456949</v>
+        <v>5.81402063336949</v>
       </c>
     </row>
     <row r="113">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>13.4862208491404</v>
+        <v>13.4904369658453</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>14.1936338697719</v>
+        <v>14.1933733289825</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-9.45066742871877</v>
+        <v>-10.1088524518521</v>
       </c>
     </row>
     <row r="118">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>7.8220868374704</v>
+        <v>6.58266702265276</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>17.8275034925222</v>
+        <v>17.8433868432414</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>7.39308287697916</v>
+        <v>5.61916207377917</v>
       </c>
     </row>
     <row r="122">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>15.3672399453624</v>
+        <v>15.3704116362478</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>15.2804098972611</v>
+        <v>15.2800700294576</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-8.95044383300775</v>
+        <v>-9.67663441661928</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>4.37888329157621</v>
+        <v>4.37737268348566</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>8.23785538485429</v>
+        <v>7.49663962489092</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>17.3439332711504</v>
+        <v>17.3623225590986</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>7.08627349117953</v>
+        <v>5.37503654557953</v>
       </c>
     </row>
     <row r="131">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>16.0767734569014</v>
+        <v>16.0790628062083</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>16.2530601763545</v>
+        <v>16.2527469043191</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-8.66464234851734</v>
+        <v>-9.41399938680564</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>4.3154128734314</v>
+        <v>4.31411502704375</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>8.19225522326391</v>
+        <v>7.59374218173536</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>14.8727764789088</v>
+        <v>14.8924378578006</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>7.62505025461376</v>
+        <v>5.90543388341376</v>
       </c>
     </row>
     <row r="140">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>17.3628775932314</v>
+        <v>17.3658549143537</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>14.9117143359067</v>
+        <v>14.9114775814301</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-8.72277398374819</v>
+        <v>-9.48661479462581</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>4.36237182854595</v>
+        <v>4.36109525832859</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>8.22180675020048</v>
+        <v>7.51009037641713</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>15.2717048576731</v>
+        <v>15.2638701417257</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>7.8843988346986</v>
+        <v>6.1369829098986</v>
       </c>
     </row>
     <row r="149">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>17.6577579699697</v>
+        <v>17.6578944778265</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>16.0394535431924</v>
+        <v>16.0483410164462</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.66564895080432</v>
+        <v>-8.60149005819852</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>4.42541051037793</v>
+        <v>4.42195313270591</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>8.50525487124061</v>
+        <v>7.68414180243546</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>13.9026590495948</v>
+        <v>13.8961148870276</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>7.35127305990925</v>
+        <v>5.59540578310925</v>
       </c>
     </row>
     <row r="158">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>18.6072696892818</v>
+        <v>18.6062957480199</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>16.7806809390585</v>
+        <v>16.7818575826559</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-7.431777481296</v>
+        <v>-8.38635599051618</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>4.34086147687682</v>
+        <v>4.33459564472661</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>8.56356926791796</v>
+        <v>7.34299712986081</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>14.2395556650367</v>
+        <v>14.2287064404322</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>7.23603215372452</v>
+        <v>5.55194742412452</v>
       </c>
     </row>
     <row r="167">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>18.4697101015941</v>
+        <v>18.4684402854609</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>16.6756232885865</v>
+        <v>16.6769601042283</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-8.68364173009379</v>
+        <v>-9.39676948908348</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>4.54662165435508</v>
+        <v>4.53461125622674</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>7.50517737536586</v>
+        <v>7.06748611251343</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>13.9935337980998</v>
+        <v>13.9807321958462</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>6.38651658620196</v>
+        <v>4.77450210940196</v>
       </c>
     </row>
     <row r="176">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>17.7958835064219</v>
+        <v>17.7938488153324</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>14.0334579679791</v>
+        <v>14.0343677795418</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-8.43816685136228</v>
+        <v>-9.0534803144219</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>4.65876670232674</v>
+        <v>4.62890559732564</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>7.51934074887383</v>
+        <v>7.5591549007673</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>15.6992581003821</v>
+        <v>15.6849847072008</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>6.4359295168677</v>
+        <v>4.8766730544677</v>
       </c>
     </row>
     <row r="185">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>16.7900449451836</v>
+        <v>16.7881962362548</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>14.8741632569866</v>
+        <v>14.8755523600021</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-7.71250138341699</v>
+        <v>-8.42094267951263</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>4.9222453675039</v>
+        <v>4.87267189072972</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>8.20816628565384</v>
+        <v>7.04136348016701</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>14.6812047048016</v>
+        <v>14.6686181166285</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>6.38848634199037</v>
+        <v>4.72436118839037</v>
       </c>
     </row>
     <row r="194">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>16.6169412741816</v>
+        <v>16.6176636759636</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>15.2166204986979</v>
+        <v>15.2172144975697</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-8.33439841763027</v>
+        <v>-9.01330333959953</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>4.97195368707641</v>
+        <v>4.89166805848956</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>8.15785231134037</v>
+        <v>7.19457830612195</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>14.6226477508858</v>
+        <v>14.6102208557052</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>6.13834875836076</v>
+        <v>4.58437888636076</v>
       </c>
     </row>
     <row r="203">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>16.3291049972427</v>
+        <v>16.3304127107027</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>14.978082828226</v>
+        <v>14.9785148721582</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-8.55673016799093</v>
+        <v>-9.25287331538343</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>5.14551818720457</v>
+        <v>5.01019110607917</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>8.02381945037186</v>
+        <v>7.74125982177996</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>14.7103696125471</v>
+        <v>14.6976640605026</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>5.1096463735059</v>
+        <v>3.6701473671059</v>
       </c>
     </row>
     <row r="212">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>16.2010374173867</v>
+        <v>16.2027676932467</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>14.8578662437998</v>
+        <v>14.8581710870759</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-7.91049991834511</v>
+        <v>-8.57853209038352</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>5.43157270705847</v>
+        <v>5.20774739561453</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>8.03422843486067</v>
+        <v>7.36797192987163</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>13.1459843653047</v>
+        <v>13.132422447142</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>5.1024158695089</v>
+        <v>3.7464593767089</v>
       </c>
     </row>
     <row r="221">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>16.7155120589688</v>
+        <v>16.7177181402079</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>15.6611435142672</v>
+        <v>15.66146072825</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-7.85251055754831</v>
+        <v>-8.4614656433445</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>5.42551646041162</v>
+        <v>5.18645741104051</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>8.87544350192378</v>
+        <v>6.98278948518007</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>13.5248701948149</v>
+        <v>13.512197980949</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>4.93303112790588</v>
+        <v>3.57926839030589</v>
       </c>
     </row>
     <row r="230">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>17.4631297383303</v>
+        <v>17.4648041579603</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>15.3962072096365</v>
+        <v>15.3966351344417</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-7.85464467146875</v>
+        <v>-8.52016000199409</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>5.51208053543849</v>
+        <v>5.2687875281798</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>9.09324609733294</v>
+        <v>7.7076996225937</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>14.0766059972946</v>
+        <v>14.0644176681865</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>4.44127260109981</v>
+        <v>3.06287507149981</v>
       </c>
     </row>
     <row r="239">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>18.1302763710907</v>
+        <v>18.1321598266037</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>15.4681690424904</v>
+        <v>15.4712319282231</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-6.94681186842955</v>
+        <v>-7.63928838329453</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>5.54524404226865</v>
+        <v>5.32487237015002</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>8.88933618222771</v>
+        <v>7.67078775834458</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>14.6597125330234</v>
+        <v>14.648444373605</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>4.0538942273823</v>
+        <v>2.6469824115455</v>
       </c>
     </row>
     <row r="248">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>18.6344104688055</v>
+        <v>18.6353042508903</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>15.7020501536464</v>
+        <v>15.7025439748567</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-5.33889055580807</v>
+        <v>-6.22230699020823</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>5.57954235723768</v>
+        <v>5.35689773700893</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>8.59425797413429</v>
+        <v>6.82538438561033</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>13.5443144018106</v>
+        <v>13.5308067982047</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>3.77057072481589</v>
+        <v>2.37195607411829</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>10.2218806720669</v>
+        <v>10.2206572620637</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>52.9342550454303</v>
+        <v>52.9336011833662</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>18.8264228706658</v>
+        <v>18.8252212299254</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>16.2667962957028</v>
+        <v>16.2681167212502</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.0121622585921343</v>
+        <v>-1.26974379657723</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>5.63050358024761</v>
+        <v>5.40925312035376</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>8.4226749565524</v>
+        <v>7.06895605983749</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>12.9665016289245</v>
+        <v>12.953294104827</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>3.36178801054046</v>
+        <v>2.02232273739166</v>
       </c>
     </row>
     <row r="266">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>18.9995424433138</v>
+        <v>18.9988665478523</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>15.5576856903108</v>
+        <v>15.559406315609</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>6.49288654639036</v>
+        <v>4.76252085110345</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>5.66927355098982</v>
+        <v>5.45657714150595</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>8.05105107631399</v>
+        <v>7.43851463279048</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>12.7127806637833</v>
+        <v>12.6997597820613</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>2.61251975940172</v>
+        <v>1.55629358391052</v>
       </c>
     </row>
     <row r="275">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>17.7034027842697</v>
+        <v>17.7058964951404</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>14.7794376315441</v>
+        <v>14.7814395130098</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>9.69923226744566</v>
+        <v>7.45964090535424</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>5.67572478004355</v>
+        <v>5.45662223035235</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>8.23950748725089</v>
+        <v>7.60534343175893</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>13.2097081825697</v>
+        <v>13.1923658878689</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>2.60015892694824</v>
+        <v>1.54721547235304</v>
       </c>
     </row>
     <row r="284">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>18.9119671404962</v>
+        <v>18.9173621629528</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>16.1350317580103</v>
+        <v>16.1383109641738</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>6.58747061336597</v>
+        <v>4.42717757533298</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>5.70210747835293</v>
+        <v>5.48479970110127</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>8.42227613052415</v>
+        <v>7.24155324659964</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>11.9848960540715</v>
+        <v>11.9543548795094</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>2.44415360984642</v>
+        <v>1.24124279421442</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>11.3175742858208</v>
+        <v>11.3431684986135</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>42.7699310063965</v>
+        <v>42.7786584502968</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>19.3906883286162</v>
+        <v>19.394763264199</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>15.0452045407915</v>
+        <v>15.0170181822106</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>3.37754949706445</v>
+        <v>1.44711402900558</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>5.70210747835293</v>
+        <v>5.54843894104018</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>6.96674978637084</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>10.0446661516426</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1.06604696142784</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>10.1413708670097</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>35.6616590462369</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>19.8965816864896</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>12.7029440502513</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-3.56842494658222</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>5.5757877547846</v>
       </c>
     </row>
   </sheetData>
